--- a/app/DTO_Export.xlsx
+++ b/app/DTO_Export.xlsx
@@ -6,13 +6,31 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DTO Data" r:id="rId3" sheetId="1"/>
+    <sheet name="Dados DTO" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>field1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>field2</t>
+  </si>
+  <si>
+    <t>Header 1</t>
+  </si>
+  <si>
+    <t>field3</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
   <si>
     <t>Hashcode</t>
   </si>
@@ -23,13 +41,7 @@
     <t>Month</t>
   </si>
   <si>
-    <t>Latitude</t>
-  </si>
-  <si>
     <t>Ipsum Doe</t>
-  </si>
-  <si>
-    <t>-2321391231</t>
   </si>
   <si>
     <t>Lorem Smith</t>
@@ -43,18 +55,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -82,73 +89,88 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="1">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="B2" t="s" s="0">
         <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="B2" t="s" s="0">
+    <row r="3">
+      <c r="A3" t="s" s="1">
         <v>4</v>
       </c>
-      <c r="C2" t="n" s="0">
-        <v>12.0</v>
-      </c>
-      <c r="D2" t="s" s="0">
+      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n" s="0">
+    <row r="5">
+      <c r="A5" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n" s="0">
         <v>3.0</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>6</v>
+      <c r="B7" t="s" s="0">
+        <v>10</v>
       </c>
-      <c r="C3" t="n" s="0">
+      <c r="C7" t="n" s="0">
         <v>5.0</v>
       </c>
-      <c r="D3" s="0"/>
     </row>
-    <row r="4">
-      <c r="A4" t="n" s="0">
+    <row r="8">
+      <c r="A8" t="n" s="0">
         <v>4.0</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>7</v>
+      <c r="B8" t="s" s="0">
+        <v>11</v>
       </c>
-      <c r="C4" t="n" s="0">
+      <c r="C8" t="n" s="0">
         <v>7.0</v>
       </c>
-      <c r="D4" s="0"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
